--- a/files/fingerscrossed.xlsx
+++ b/files/fingerscrossed.xlsx
@@ -15885,6 +15885,11 @@
       <c r="G455" s="5" t="n">
         <v>33</v>
       </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="456" s="4">
       <c r="A456" s="1" t="n">
@@ -15914,6 +15919,11 @@
       <c r="G456" s="5" t="n">
         <v>3.6</v>
       </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="457" s="4">
       <c r="A457" s="1" t="n">
@@ -15943,6 +15953,11 @@
       <c r="G457" s="5" t="n">
         <v>9</v>
       </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="458" s="4">
       <c r="A458" s="1" t="n">
@@ -15972,6 +15987,11 @@
       <c r="G458" s="5" t="n">
         <v>25</v>
       </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="459" s="4">
       <c r="A459" s="1" t="n">
@@ -16001,6 +16021,11 @@
       <c r="G459" s="5" t="n">
         <v>25</v>
       </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="460" s="4">
       <c r="A460" s="1" t="n">
@@ -16030,6 +16055,11 @@
       <c r="G460" s="5" t="n">
         <v>25</v>
       </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="461" s="4">
       <c r="A461" s="1" t="n">
@@ -16059,6 +16089,11 @@
       <c r="G461" s="5" t="n">
         <v>28</v>
       </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="462" s="4">
       <c r="A462" s="1" t="n">
@@ -16088,6 +16123,11 @@
       <c r="G462" s="5" t="n">
         <v>4.02</v>
       </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="463" s="4">
       <c r="A463" s="1" t="n">
@@ -16117,6 +16157,11 @@
       <c r="G463" s="5" t="n">
         <v>4.3</v>
       </c>
+      <c r="H463" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
+      </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="464" s="4">
       <c r="A464" s="1" t="n">
@@ -16145,6 +16190,11 @@
       </c>
       <c r="G464" s="5" t="n">
         <v>48.57</v>
+      </c>
+      <c r="H464" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
       </c>
     </row>
     <row customFormat="1" customHeight="1" ht="12.75" r="465" s="4">
@@ -24096,6 +24146,11 @@
       </c>
       <c r="G698" s="5" t="n">
         <v>8.18</v>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>Overheads</t>
+        </is>
       </c>
     </row>
   </sheetData>
